--- a/biology/Médecine/Heinrich_Curschmann/Heinrich_Curschmann.xlsx
+++ b/biology/Médecine/Heinrich_Curschmann/Heinrich_Curschmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Curschmann, né le 28 juin 1846 à Giessen et mort le  6 mai 1910 à Leipzig, est un médecin interniste hessois.
 </t>
@@ -511,11 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Curschmann est le fils du professeur Johann Heinrich Curschmann (1818-1902) et d'Anna Maria Wilhelm (1822-1888) à Gießen et étudie la médecine humaine à l'université de Giessen de 1863 à 1868. Après avoir travaillé pour la première fois comme médecin assistant à l'hôpital Rochus de Mayence, il exerce à partir de 1871 dans des hôpitaux à Berlin-Moabit, avant d'être nommé directeur médical et chef des hôpitaux d'État à Hambourg en 1879. À Hambourg, il est responsable de la planification et de la fondation du Nouvel hôpital général d'Eppendorf, qui est construit à partir de 1884. À partir de 1885, les services respectivement achevés commencent à fonctionner sous la direction de Curschmann. Il quitte son poste en 1888, avant l'achèvement définitif de la construction de l'hôpital, pour devenir professeur à l'université de Leipzig. En 1892, il est élu membre de l'Académie Léopoldine.
-Famille
-En 1872 à Berlin, il épouse Margarethe Lohde (1847-1915), une fille du conseiller sanitaire Dr. Hermann Lohde et Émilie Oppert. Le géographe Fritz Curschmann et le médecin Hans Curschmann sont ses fils, et le couple a également une fille.
 </t>
         </is>
       </c>
@@ -541,14 +553,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1872 à Berlin, il épouse Margarethe Lohde (1847-1915), une fille du conseiller sanitaire Dr. Hermann Lohde et Émilie Oppert. Le géographe Fritz Curschmann et le médecin Hans Curschmann sont ses fils, et le couple a également une fille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heinrich_Curschmann</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heinrich_Curschmann</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Allemagne, il est le promoteur de la photographie médicale, considérée à la fin du XIXe siècle comme une « voie royale » du diagnostic clinique, mais vite reléguée à un simple moyen documentaire avec l'avènement de la radiologie[1].
-Il a laissé son nom à un type de trocart, le trocart de Curschmann, petit trocart utilisé pour évacuer un œdème sous-cutané[2].
-Les spirales de Curschmann sont des filaments de mucus observés dans les expectorations des asthmatiques : elles correspondent à des moulages de bronchioles dont le mucus est évacué lors de la toux[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Allemagne, il est le promoteur de la photographie médicale, considérée à la fin du XIXe siècle comme une « voie royale » du diagnostic clinique, mais vite reléguée à un simple moyen documentaire avec l'avènement de la radiologie.
+Il a laissé son nom à un type de trocart, le trocart de Curschmann, petit trocart utilisé pour évacuer un œdème sous-cutané.
+Les spirales de Curschmann sont des filaments de mucus observés dans les expectorations des asthmatiques : elles correspondent à des moulages de bronchioles dont le mucus est évacué lors de la toux. 
 La Curschmannstrasse est une rue de Hambourg-Eppendorf, située à proximité immédiate de la clinique universitaire d'Eppendorf (UKE) et nommée en son honneur en 1899. Le gymnasium construit dans cette rue a également reçu son nom, mais il ne le porte plus (aujourd'hui « Stadtteilschule Eppendorf »). La Curschmannstrasse de Leipzig porte son nom depuis 1931.
 Sur le site de l'UKE, près du bâtiment O 36, se trouve un buste de Heinrich Curschmann réalisé par l'artiste Max Lange.
 </t>
